--- a/03_Outputs/Vulnerable/04_Cluster/Summary_Stats.xlsx
+++ b/03_Outputs/Vulnerable/04_Cluster/Summary_Stats.xlsx
@@ -628,7 +628,7 @@
         <v>-2.631639762074445E-16</v>
       </c>
       <c r="E10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>-2.424285023594979</v>
@@ -682,7 +682,7 @@
         <v>-7.195889974422311E-17</v>
       </c>
       <c r="E12">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>-2.366890330932922</v>
@@ -736,7 +736,7 @@
         <v>-8.635067969306772E-17</v>
       </c>
       <c r="E14">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>-2.067930763104719</v>
@@ -1006,7 +1006,7 @@
         <v>-1.130782710266363E-17</v>
       </c>
       <c r="E24">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F24">
         <v>-2.398159283153091</v>
@@ -1087,7 +1087,7 @@
         <v>-1.809252336426181E-16</v>
       </c>
       <c r="E27">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>-3.057529982695132</v>
@@ -1222,7 +1222,7 @@
         <v>-9.046261682130905E-17</v>
       </c>
       <c r="E32">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F32">
         <v>-1.337057553832439</v>
